--- a/Results/without_2020.xlsx
+++ b/Results/without_2020.xlsx
@@ -415,22 +415,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2084155710883624</v>
+        <v>0.2082640941129976</v>
       </c>
       <c r="E2">
-        <v>-0.1484232618052506</v>
+        <v>-0.1510765598520081</v>
       </c>
       <c r="F2">
-        <v>-0.008563409394039434</v>
+        <v>-0.008518232158644112</v>
       </c>
       <c r="G2">
-        <v>0.1223049758014074</v>
+        <v>0.1223654610947635</v>
       </c>
       <c r="H2">
-        <v>-0.01399184354018779</v>
+        <v>-0.0139812792099856</v>
       </c>
       <c r="I2">
-        <v>0.1597420321502945</v>
+        <v>0.1570534839871236</v>
       </c>
     </row>
     <row r="3">
@@ -444,22 +444,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2753120575984305</v>
+        <v>0.2752220150331173</v>
       </c>
       <c r="E3">
-        <v>0.03510373685690027</v>
+        <v>0.03415840342675125</v>
       </c>
       <c r="F3">
-        <v>0.03708830263594409</v>
+        <v>0.03708287711688496</v>
       </c>
       <c r="G3">
-        <v>0.04382721248958088</v>
+        <v>0.04388734658915094</v>
       </c>
       <c r="H3">
-        <v>-0.1196286020094419</v>
+        <v>-0.1196287172684141</v>
       </c>
       <c r="I3">
-        <v>0.2717027075714142</v>
+        <v>0.2707219248974901</v>
       </c>
     </row>
     <row r="4">
@@ -473,22 +473,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3406942154467156</v>
+        <v>0.3402185535270936</v>
       </c>
       <c r="E4">
-        <v>-0.212739346856063</v>
+        <v>-0.2128588963814888</v>
       </c>
       <c r="F4">
-        <v>0.01363042864295405</v>
+        <v>0.01349054233363345</v>
       </c>
       <c r="G4">
-        <v>0.2578040298908117</v>
+        <v>0.2579426802228095</v>
       </c>
       <c r="H4">
-        <v>-0.132282133639829</v>
+        <v>-0.1326517026580101</v>
       </c>
       <c r="I4">
-        <v>0.2671071934845912</v>
+        <v>0.2661411770440338</v>
       </c>
     </row>
     <row r="5">
@@ -502,22 +502,22 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.134811175340388</v>
+        <v>0.1332751956277254</v>
       </c>
       <c r="E5">
-        <v>-0.1069116197175699</v>
+        <v>-0.1166989158648164</v>
       </c>
       <c r="F5">
-        <v>-0.02763103690509183</v>
+        <v>-0.02851304885181571</v>
       </c>
       <c r="G5">
-        <v>0.1571438629249542</v>
+        <v>0.156786428034509</v>
       </c>
       <c r="H5">
-        <v>-0.02739757399724452</v>
+        <v>-0.02791946099472931</v>
       </c>
       <c r="I5">
-        <v>0.1300148076454377</v>
+        <v>0.1169301979508717</v>
       </c>
     </row>
     <row r="6">
@@ -531,22 +531,22 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.1753230884118411</v>
+        <v>0.173241544913</v>
       </c>
       <c r="E6">
-        <v>0.03599024839712506</v>
+        <v>0.02853297127986565</v>
       </c>
       <c r="F6">
-        <v>0.02228524066432214</v>
+        <v>0.02171024612124972</v>
       </c>
       <c r="G6">
-        <v>0.1679802316608958</v>
+        <v>0.1665907587255617</v>
       </c>
       <c r="H6">
-        <v>-0.06360720824617827</v>
+        <v>-0.0649859693321071</v>
       </c>
       <c r="I6">
-        <v>0.3379716008880074</v>
+        <v>0.3250895517075705</v>
       </c>
     </row>
     <row r="7">
@@ -560,22 +560,22 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.1982033515575177</v>
+        <v>0.1954974564036593</v>
       </c>
       <c r="E7">
-        <v>-0.1657282103963276</v>
+        <v>-0.1711427405297972</v>
       </c>
       <c r="F7">
-        <v>0.0159510898167905</v>
+        <v>0.01539698432406778</v>
       </c>
       <c r="G7">
-        <v>0.3223688872811969</v>
+        <v>0.3219051303681191</v>
       </c>
       <c r="H7">
-        <v>-0.1169547261031147</v>
+        <v>-0.1177333658587933</v>
       </c>
       <c r="I7">
-        <v>0.2538403921560644</v>
+        <v>0.243923464707251</v>
       </c>
     </row>
     <row r="8">
@@ -589,22 +589,22 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>0.2366168519431149</v>
+        <v>0.236562143214607</v>
       </c>
       <c r="E8">
-        <v>-0.1441378125249653</v>
+        <v>-0.1454624728331346</v>
       </c>
       <c r="F8">
-        <v>-0.06354568046746678</v>
+        <v>-0.06354040709068398</v>
       </c>
       <c r="G8">
-        <v>0.1641236131599362</v>
+        <v>0.1641007730500439</v>
       </c>
       <c r="H8">
-        <v>-0.06646950164871246</v>
+        <v>-0.06644520397996789</v>
       </c>
       <c r="I8">
-        <v>0.1265874704619065</v>
+        <v>0.1252148323608644</v>
       </c>
     </row>
     <row r="9">
@@ -618,22 +618,22 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>0.307816795273089</v>
+        <v>0.3077897859588186</v>
       </c>
       <c r="E9">
-        <v>0.02010603559653568</v>
+        <v>0.01998949855651411</v>
       </c>
       <c r="F9">
-        <v>0.02061346795193697</v>
+        <v>0.02052396817707525</v>
       </c>
       <c r="G9">
-        <v>0.1344581323744487</v>
+        <v>0.1343733772735369</v>
       </c>
       <c r="H9">
-        <v>-0.1981594871096908</v>
+        <v>-0.1981653848496494</v>
       </c>
       <c r="I9">
-        <v>0.2848349440863203</v>
+        <v>0.2845112451162919</v>
       </c>
     </row>
     <row r="10">
@@ -647,22 +647,22 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>0.389263853771558</v>
+        <v>0.388927907173132</v>
       </c>
       <c r="E10">
-        <v>-0.2498209346390681</v>
+        <v>-0.2492711828895242</v>
       </c>
       <c r="F10">
-        <v>0.004939769075434253</v>
+        <v>0.004512142624484516</v>
       </c>
       <c r="G10">
-        <v>0.3140209742035633</v>
+        <v>0.3139755800629782</v>
       </c>
       <c r="H10">
-        <v>-0.1734060584997827</v>
+        <v>-0.173856425833387</v>
       </c>
       <c r="I10">
-        <v>0.2849976039117053</v>
+        <v>0.2842880211376837</v>
       </c>
     </row>
     <row r="11">
@@ -676,22 +676,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05049346157297308</v>
+        <v>0.04997628891446837</v>
       </c>
       <c r="E11">
-        <v>0.02667133600035854</v>
+        <v>0.01977191762415842</v>
       </c>
       <c r="F11">
-        <v>0.02592732919463847</v>
+        <v>0.02597856354649819</v>
       </c>
       <c r="G11">
-        <v>-0.05054964400449036</v>
+        <v>-0.05086579967833149</v>
       </c>
       <c r="H11">
-        <v>-0.01812760482407816</v>
+        <v>-0.01847366189036581</v>
       </c>
       <c r="I11">
-        <v>0.03441487793940112</v>
+        <v>0.0263873085164299</v>
       </c>
     </row>
     <row r="12">
@@ -705,22 +705,22 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1834939766581156</v>
+        <v>0.1832426959128766</v>
       </c>
       <c r="E12">
-        <v>0.04351448225755306</v>
+        <v>0.04005535037748942</v>
       </c>
       <c r="F12">
-        <v>0.0004956453831377328</v>
+        <v>0.0007451280507517755</v>
       </c>
       <c r="G12">
-        <v>0.08265983288981449</v>
+        <v>0.08214246267462588</v>
       </c>
       <c r="H12">
-        <v>-0.03689775964476993</v>
+        <v>-0.03738345595952719</v>
       </c>
       <c r="I12">
-        <v>0.2732661775438494</v>
+        <v>0.2688021810562162</v>
       </c>
     </row>
     <row r="13">
@@ -734,22 +734,22 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4618209093300489</v>
+        <v>0.4616164166716858</v>
       </c>
       <c r="E13">
-        <v>-0.05151158452060756</v>
+        <v>-0.05492679113377363</v>
       </c>
       <c r="F13">
-        <v>0.04026226372477337</v>
+        <v>0.04026192813179974</v>
       </c>
       <c r="G13">
-        <v>0.06880611166467343</v>
+        <v>0.06865280452542954</v>
       </c>
       <c r="H13">
-        <v>-0.07307093773754048</v>
+        <v>-0.07313750563485932</v>
       </c>
       <c r="I13">
-        <v>0.4463067624613473</v>
+        <v>0.4424668525602797</v>
       </c>
     </row>
     <row r="14">
@@ -763,22 +763,22 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.09993930363255243</v>
+        <v>0.09969995690863342</v>
       </c>
       <c r="E14">
-        <v>-0.07497729838923384</v>
+        <v>-0.08100744149265715</v>
       </c>
       <c r="F14">
-        <v>0.1343558759818095</v>
+        <v>0.1342155870573407</v>
       </c>
       <c r="G14">
-        <v>0.002211188474034786</v>
+        <v>0.002173759608953274</v>
       </c>
       <c r="H14">
-        <v>-0.0644498094495769</v>
+        <v>-0.06461216742529796</v>
       </c>
       <c r="I14">
-        <v>0.09707926024958624</v>
+        <v>0.0904696946569743</v>
       </c>
     </row>
     <row r="15">
@@ -792,22 +792,22 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.2410131569948297</v>
+        <v>0.2408943093385263</v>
       </c>
       <c r="E15">
-        <v>-0.0731602705123926</v>
+        <v>-0.07564989354449736</v>
       </c>
       <c r="F15">
-        <v>0.05857110340228999</v>
+        <v>0.05855538836127838</v>
       </c>
       <c r="G15">
-        <v>0.2069556934399235</v>
+        <v>0.2068532954044149</v>
       </c>
       <c r="H15">
-        <v>-0.06139894662364043</v>
+        <v>-0.06158074840361927</v>
       </c>
       <c r="I15">
-        <v>0.3719807367010084</v>
+        <v>0.3690723511561025</v>
       </c>
     </row>
     <row r="16">
@@ -821,22 +821,22 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.5168055949827224</v>
+        <v>0.5166442573205572</v>
       </c>
       <c r="E16">
-        <v>-0.1799628845905907</v>
+        <v>-0.1823888438274111</v>
       </c>
       <c r="F16">
-        <v>0.09360568133074931</v>
+        <v>0.09348311384180197</v>
       </c>
       <c r="G16">
-        <v>0.2378470675292546</v>
+        <v>0.238034236835027</v>
       </c>
       <c r="H16">
-        <v>-0.1264743909544741</v>
+        <v>-0.1263883386309477</v>
       </c>
       <c r="I16">
-        <v>0.541821068297665</v>
+        <v>0.5393844255390263</v>
       </c>
     </row>
     <row r="17">
@@ -850,22 +850,22 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>0.1214314906042335</v>
+        <v>0.1210956467133211</v>
       </c>
       <c r="E17">
-        <v>-0.01814501676825842</v>
+        <v>-0.02703252085187202</v>
       </c>
       <c r="F17">
-        <v>0.1747478006563874</v>
+        <v>0.1746099339307454</v>
       </c>
       <c r="G17">
-        <v>-0.05110184778537352</v>
+        <v>-0.0511178514218078</v>
       </c>
       <c r="H17">
-        <v>-0.2520948937272882</v>
+        <v>-0.2522142968992194</v>
       </c>
       <c r="I17">
-        <v>-0.02516246702030145</v>
+        <v>-0.03465908852883359</v>
       </c>
     </row>
     <row r="18">
@@ -879,22 +879,22 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>0.2744366931609985</v>
+        <v>0.2741538337473899</v>
       </c>
       <c r="E18">
-        <v>-0.01193886464495719</v>
+        <v>-0.01734464785748102</v>
       </c>
       <c r="F18">
-        <v>0.08907057138213093</v>
+        <v>0.08912290682404356</v>
       </c>
       <c r="G18">
-        <v>0.132647579715572</v>
+        <v>0.13252743020848</v>
       </c>
       <c r="H18">
-        <v>-0.2797028737326235</v>
+        <v>-0.2799136653717715</v>
       </c>
       <c r="I18">
-        <v>0.2045131058811194</v>
+        <v>0.1985458575506627</v>
       </c>
     </row>
     <row r="19">
@@ -908,22 +908,22 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>0.5766445275831602</v>
+        <v>0.5762433953333916</v>
       </c>
       <c r="E19">
-        <v>-0.1409934420691066</v>
+        <v>-0.1461242563595277</v>
       </c>
       <c r="F19">
-        <v>0.1773142251901181</v>
+        <v>0.1770832494683998</v>
       </c>
       <c r="G19">
-        <v>0.1017557701443836</v>
+        <v>0.1021000494964781</v>
       </c>
       <c r="H19">
-        <v>-0.3521876543604119</v>
+        <v>-0.3519491261588259</v>
       </c>
       <c r="I19">
-        <v>0.3625334264881488</v>
+        <v>0.3573533117799172</v>
       </c>
     </row>
   </sheetData>

--- a/Results/without_2020.xlsx
+++ b/Results/without_2020.xlsx
@@ -415,22 +415,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2082640941129976</v>
+        <v>0.2082640916047662</v>
       </c>
       <c r="E2">
-        <v>-0.1510765598520081</v>
+        <v>-0.1510765678532451</v>
       </c>
       <c r="F2">
-        <v>-0.008518232158644112</v>
+        <v>-0.008518184880865309</v>
       </c>
       <c r="G2">
-        <v>0.1223654610947635</v>
+        <v>0.1223654480526788</v>
       </c>
       <c r="H2">
-        <v>-0.0139812792099856</v>
+        <v>-0.01398129013389937</v>
       </c>
       <c r="I2">
-        <v>0.1570534839871236</v>
+        <v>0.1570534967894375</v>
       </c>
     </row>
     <row r="3">
@@ -444,22 +444,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2752220150331173</v>
+        <v>0.2752220110349812</v>
       </c>
       <c r="E3">
-        <v>0.03415840342675125</v>
+        <v>0.03415839745862392</v>
       </c>
       <c r="F3">
-        <v>0.03708287711688496</v>
+        <v>0.03708291028247568</v>
       </c>
       <c r="G3">
-        <v>0.04388734658915094</v>
+        <v>0.04388733567135272</v>
       </c>
       <c r="H3">
-        <v>-0.1196287172684141</v>
+        <v>-0.1196287257658399</v>
       </c>
       <c r="I3">
-        <v>0.2707219248974901</v>
+        <v>0.2707219286815956</v>
       </c>
     </row>
     <row r="4">
@@ -473,22 +473,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3402185535270936</v>
+        <v>0.3402185446654471</v>
       </c>
       <c r="E4">
-        <v>-0.2128588963814888</v>
+        <v>-0.2128589015167801</v>
       </c>
       <c r="F4">
-        <v>0.01349054233363345</v>
+        <v>0.0134905759998678</v>
       </c>
       <c r="G4">
-        <v>0.2579426802228095</v>
+        <v>0.2579426673826664</v>
       </c>
       <c r="H4">
-        <v>-0.1326517026580101</v>
+        <v>-0.1326517087734684</v>
       </c>
       <c r="I4">
-        <v>0.2661411770440338</v>
+        <v>0.2661411777577314</v>
       </c>
     </row>
     <row r="5">
@@ -502,22 +502,22 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.1332751956277254</v>
+        <v>0.1332751935464636</v>
       </c>
       <c r="E5">
-        <v>-0.1166989158648164</v>
+        <v>-0.116698927572342</v>
       </c>
       <c r="F5">
-        <v>-0.02851304885181571</v>
+        <v>-0.02851297316547363</v>
       </c>
       <c r="G5">
-        <v>0.156786428034509</v>
+        <v>0.1567864077882621</v>
       </c>
       <c r="H5">
-        <v>-0.02791946099472931</v>
+        <v>-0.0279194742951705</v>
       </c>
       <c r="I5">
-        <v>0.1169301979508717</v>
+        <v>0.11693022630174</v>
       </c>
     </row>
     <row r="6">
@@ -531,22 +531,22 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.173241544913</v>
+        <v>0.1732415402992213</v>
       </c>
       <c r="E6">
-        <v>0.02853297127986565</v>
+        <v>0.02853296164065355</v>
       </c>
       <c r="F6">
-        <v>0.02171024612124972</v>
+        <v>0.02171030284027498</v>
       </c>
       <c r="G6">
-        <v>0.1665907587255617</v>
+        <v>0.1665907394324355</v>
       </c>
       <c r="H6">
-        <v>-0.0649859693321071</v>
+        <v>-0.06498598136657874</v>
       </c>
       <c r="I6">
-        <v>0.3250895517075705</v>
+        <v>0.3250895628460064</v>
       </c>
     </row>
     <row r="7">
@@ -560,22 +560,22 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.1954974564036593</v>
+        <v>0.1954974437029513</v>
       </c>
       <c r="E7">
-        <v>-0.1711427405297972</v>
+        <v>-0.1711427482904764</v>
       </c>
       <c r="F7">
-        <v>0.01539698432406778</v>
+        <v>0.01539703744377352</v>
       </c>
       <c r="G7">
-        <v>0.3219051303681191</v>
+        <v>0.3219051078259358</v>
       </c>
       <c r="H7">
-        <v>-0.1177333658587933</v>
+        <v>-0.1177333747412326</v>
       </c>
       <c r="I7">
-        <v>0.243923464707251</v>
+        <v>0.2439234659409522</v>
       </c>
     </row>
     <row r="8">
@@ -589,22 +589,22 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>0.236562143214607</v>
+        <v>0.2365621363376875</v>
       </c>
       <c r="E8">
-        <v>-0.1454624728331346</v>
+        <v>-0.1454624861526188</v>
       </c>
       <c r="F8">
-        <v>-0.06354040709068398</v>
+        <v>-0.06354031491664269</v>
       </c>
       <c r="G8">
-        <v>0.1641007730500439</v>
+        <v>0.1641007386179254</v>
       </c>
       <c r="H8">
-        <v>-0.06644520397996789</v>
+        <v>-0.06644523078501674</v>
       </c>
       <c r="I8">
-        <v>0.1252148323608644</v>
+        <v>0.125214843101336</v>
       </c>
     </row>
     <row r="9">
@@ -618,22 +618,22 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>0.3077897859588186</v>
+        <v>0.3077897781334684</v>
       </c>
       <c r="E9">
-        <v>0.01998949855651411</v>
+        <v>0.01998948895747965</v>
       </c>
       <c r="F9">
-        <v>0.02052396817707525</v>
+        <v>0.02052404166641986</v>
       </c>
       <c r="G9">
-        <v>0.1343733772735369</v>
+        <v>0.1343733472679558</v>
       </c>
       <c r="H9">
-        <v>-0.1981653848496494</v>
+        <v>-0.1981654072823371</v>
       </c>
       <c r="I9">
-        <v>0.2845112451162919</v>
+        <v>0.2845112487429873</v>
       </c>
     </row>
     <row r="10">
@@ -647,22 +647,22 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>0.388927907173132</v>
+        <v>0.38892788909767</v>
       </c>
       <c r="E10">
-        <v>-0.2492711828895242</v>
+        <v>-0.2492711934363676</v>
       </c>
       <c r="F10">
-        <v>0.004512142624484516</v>
+        <v>0.004512227996774199</v>
       </c>
       <c r="G10">
-        <v>0.3139755800629782</v>
+        <v>0.3139755433964719</v>
       </c>
       <c r="H10">
-        <v>-0.173856425833387</v>
+        <v>-0.1738564437552785</v>
       </c>
       <c r="I10">
-        <v>0.2842880211376837</v>
+        <v>0.2842880232992684</v>
       </c>
     </row>
     <row r="11">
@@ -676,22 +676,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04997628891446837</v>
+        <v>0.04997628729710213</v>
       </c>
       <c r="E11">
-        <v>0.01977191762415842</v>
+        <v>0.01977190946638174</v>
       </c>
       <c r="F11">
-        <v>0.02597856354649819</v>
+        <v>0.0259786035488685</v>
       </c>
       <c r="G11">
-        <v>-0.05086579967833149</v>
+        <v>-0.05086580435713595</v>
       </c>
       <c r="H11">
-        <v>-0.01847366189036581</v>
+        <v>-0.01847367125019339</v>
       </c>
       <c r="I11">
-        <v>0.0263873085164299</v>
+        <v>0.02638732470502347</v>
       </c>
     </row>
     <row r="12">
@@ -705,22 +705,22 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1832426959128766</v>
+        <v>0.1832426927438817</v>
       </c>
       <c r="E12">
-        <v>0.04005535037748942</v>
+        <v>0.04005534623292206</v>
       </c>
       <c r="F12">
-        <v>0.0007451280507517755</v>
+        <v>0.0007451557488069582</v>
       </c>
       <c r="G12">
-        <v>0.08214246267462588</v>
+        <v>0.0821424561300379</v>
       </c>
       <c r="H12">
-        <v>-0.03738345595952719</v>
+        <v>-0.03738346377948165</v>
       </c>
       <c r="I12">
-        <v>0.2688021810562162</v>
+        <v>0.2688021870761617</v>
       </c>
     </row>
     <row r="13">
@@ -734,22 +734,22 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4616164166716858</v>
+        <v>0.4616164123171407</v>
       </c>
       <c r="E13">
-        <v>-0.05492679113377363</v>
+        <v>-0.05492679138336598</v>
       </c>
       <c r="F13">
-        <v>0.04026192813179974</v>
+        <v>0.04026194691182128</v>
       </c>
       <c r="G13">
-        <v>0.06865280452542954</v>
+        <v>0.06865279982407557</v>
       </c>
       <c r="H13">
-        <v>-0.07313750563485932</v>
+        <v>-0.07313751007037084</v>
       </c>
       <c r="I13">
-        <v>0.4424668525602797</v>
+        <v>0.4424668575992996</v>
       </c>
     </row>
     <row r="14">
@@ -763,22 +763,22 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.09969995690863342</v>
+        <v>0.09969995560441713</v>
       </c>
       <c r="E14">
-        <v>-0.08100744149265715</v>
+        <v>-0.08100745066031401</v>
       </c>
       <c r="F14">
-        <v>0.1342155870573407</v>
+        <v>0.1342156310256413</v>
       </c>
       <c r="G14">
-        <v>0.002173759608953274</v>
+        <v>0.00217375408590903</v>
       </c>
       <c r="H14">
-        <v>-0.06461216742529796</v>
+        <v>-0.06461217867100855</v>
       </c>
       <c r="I14">
-        <v>0.0904696946569743</v>
+        <v>0.09046971138464599</v>
       </c>
     </row>
     <row r="15">
@@ -792,22 +792,22 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.2408943093385263</v>
+        <v>0.2408943066796456</v>
       </c>
       <c r="E15">
-        <v>-0.07564989354449736</v>
+        <v>-0.07564989995363902</v>
       </c>
       <c r="F15">
-        <v>0.05855538836127838</v>
+        <v>0.05855542296433836</v>
       </c>
       <c r="G15">
-        <v>0.2068532954044149</v>
+        <v>0.2068532876943898</v>
       </c>
       <c r="H15">
-        <v>-0.06158074840361927</v>
+        <v>-0.06158075823696052</v>
       </c>
       <c r="I15">
-        <v>0.3690723511561025</v>
+        <v>0.369072359147772</v>
       </c>
     </row>
     <row r="16">
@@ -821,22 +821,22 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.5166442573205572</v>
+        <v>0.5166442536850528</v>
       </c>
       <c r="E16">
-        <v>-0.1823888438274111</v>
+        <v>-0.1823888452344775</v>
       </c>
       <c r="F16">
-        <v>0.09348311384180197</v>
+        <v>0.09348313734881097</v>
       </c>
       <c r="G16">
-        <v>0.238034236835027</v>
+        <v>0.2380342305504515</v>
       </c>
       <c r="H16">
-        <v>-0.1263883386309477</v>
+        <v>-0.1263883453593975</v>
       </c>
       <c r="I16">
-        <v>0.5393844255390263</v>
+        <v>0.5393844309904381</v>
       </c>
     </row>
     <row r="17">
@@ -850,22 +850,22 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>0.1210956467133211</v>
+        <v>0.1210956436055035</v>
       </c>
       <c r="E17">
-        <v>-0.02703252085187202</v>
+        <v>-0.02703253408531481</v>
       </c>
       <c r="F17">
-        <v>0.1746099339307454</v>
+        <v>0.1746099889194221</v>
       </c>
       <c r="G17">
-        <v>-0.0511178514218078</v>
+        <v>-0.05111786204804325</v>
       </c>
       <c r="H17">
-        <v>-0.2522142968992194</v>
+        <v>-0.252214316756147</v>
       </c>
       <c r="I17">
-        <v>-0.03465908852883359</v>
+        <v>-0.03465908036457677</v>
       </c>
     </row>
     <row r="18">
@@ -879,22 +879,22 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>0.2741538337473899</v>
+        <v>0.2741538290107157</v>
       </c>
       <c r="E18">
-        <v>-0.01734464785748102</v>
+        <v>-0.0173446558994037</v>
       </c>
       <c r="F18">
-        <v>0.08912290682404356</v>
+        <v>0.08912295347198596</v>
       </c>
       <c r="G18">
-        <v>0.13252743020848</v>
+        <v>0.132527416598669</v>
       </c>
       <c r="H18">
-        <v>-0.2799136653717715</v>
+        <v>-0.279913681923583</v>
       </c>
       <c r="I18">
-        <v>0.1985458575506627</v>
+        <v>0.1985458612583884</v>
       </c>
     </row>
     <row r="19">
@@ -908,22 +908,22 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>0.5762433953333916</v>
+        <v>0.5762433892785435</v>
       </c>
       <c r="E19">
-        <v>-0.1461242563595277</v>
+        <v>-0.1461242576387853</v>
       </c>
       <c r="F19">
-        <v>0.1770832494683998</v>
+        <v>0.1770832878287929</v>
       </c>
       <c r="G19">
-        <v>0.1021000494964781</v>
+        <v>0.1021000347846224</v>
       </c>
       <c r="H19">
-        <v>-0.3519491261588259</v>
+        <v>-0.3519491395118761</v>
       </c>
       <c r="I19">
-        <v>0.3573533117799172</v>
+        <v>0.3573533147412959</v>
       </c>
     </row>
   </sheetData>
